--- a/check_links/summary_data.xlsx
+++ b/check_links/summary_data.xlsx
@@ -477,7 +477,7 @@
     <t>Valaciclovir</t>
   </si>
   <si>
-    <t>Valacyclovir</t>
+    <t>valacyclovir</t>
   </si>
   <si>
     <t>Tenofovir</t>
@@ -4866,7 +4866,7 @@
     <t>https://www.uptodate.com/contents/acyclovir-drug-information</t>
   </si>
   <si>
-    <t>https://www.uptodate.com/contents/Valacyclovir-drug-information</t>
+    <t>https://www.uptodate.com/contents/valacyclovir-drug-information</t>
   </si>
   <si>
     <t>https://www.uptodate.com/contents/tenofovir-drug-information</t>

--- a/check_links/summary_data.xlsx
+++ b/check_links/summary_data.xlsx
@@ -13127,17 +13127,17 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>Amino Acids (Essential &amp; Nonessential )</t>
+          <t>Amino Acids</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>amino-acids-(essential-&amp;-nonessential-)</t>
+          <t>amino-acids</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/amino-acids-(essential-&amp;-nonessential-)-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/amino-acids-drug-information)</t>
         </is>
       </c>
     </row>

--- a/check_links/summary_data.xlsx
+++ b/check_links/summary_data.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>epinephrine</t>
+          <t>epinephrine-adrenaline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/epinephrine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/epinephrine-adrenaline-drug-information)</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>protamine-sulphate</t>
+          <t>protamine-sulfate</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/protamine-sulphate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/protamine-sulfate-drug-information)</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>folinate</t>
+          <t>leucovorin</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/folinate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/leucovorin-drug-information)</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>folinate</t>
+          <t>leucovorin</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/folinate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/leucovorin-drug-information)</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>amoxicillin-and-clavulanic-acid</t>
+          <t>amoxicillin-and-clavulanate</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/amoxicillin-and-clavulanic-acid-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/amoxicillin-and-clavulanate-drug-information)</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>amoxicillin-and-clavulanic-acid</t>
+          <t>amoxicillin-and-clavulanate</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/amoxicillin-and-clavulanic-acid-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/amoxicillin-and-clavulanate-drug-information)</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>amoxicillin-and-clavulanic-acid</t>
+          <t>amoxicillin-and-clavulanate</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/amoxicillin-and-clavulanic-acid-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/amoxicillin-and-clavulanate-drug-information)</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>flomoxef</t>
+          <t>flomoxef-international</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/flomoxef-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/flomoxef-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pipemidic-acid</t>
+          <t>pipemidic-acid-international</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/pipemidic-acid-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/pipemidic-acid-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>sulfamethoxazole-and-trimethoprim</t>
+          <t>trimethoprim-sulfamethoxazole-co-trimoxazole</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sulfamethoxazole-and-trimethoprim-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/trimethoprim-sulfamethoxazole-co-trimoxazole-drug-information)</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sulfamethoxazole-and-trimethoprim</t>
+          <t>trimethoprim-sulfamethoxazole-co-trimoxazole</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sulfamethoxazole-and-trimethoprim-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/trimethoprim-sulfamethoxazole-co-trimoxazole-drug-information)</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>sulfamethoxazole-and-trimethoprim</t>
+          <t>trimethoprim-sulfamethoxazole-co-trimoxazole</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sulfamethoxazole-and-trimethoprim-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/trimethoprim-sulfamethoxazole-co-trimoxazole-drug-information)</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>teicoplanin</t>
+          <t>teicoplanin-international</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/teicoplanin-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/teicoplanin-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>rifampicin</t>
+          <t>rifampin-rifampicin</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/rifampicin-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/rifampin-rifampicin-drug-information)</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>fusidate</t>
+          <t>fusidic-acid-united-states-not-available-systemic-international</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/fusidate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/fusidic-acid-united-states-not-available-systemic-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>colistin-methanesulfonate</t>
+          <t>colistin-colistimethate</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/colistin-methanesulfonate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/colistin-colistimethate-drug-information)</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>valaciclovir</t>
+          <t>valacyclovir</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/valaciclovir-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/valacyclovir-drug-information)</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>daclatasvir-international</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/daclatasvir-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/daclatasvir-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>sofosbuvir-and-velpatasvir-and-voxilaprevir</t>
+          <t>sofosbuvir-velpatasvir-and-voxilaprevir</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sofosbuvir-and-velpatasvir-and-voxilaprevir-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sofosbuvir-velpatasvir-and-voxilaprevir-drug-information)</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>molnupiravir</t>
+          <t>molnupiravir-united-states-authorized-for-use</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/molnupiravir-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/molnupiravir-united-states-authorized-for-use-drug-information)</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>meperidine</t>
+          <t>meperidine-pethidine</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/meperidine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/meperidine-pethidine-drug-information)</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>tramadol-and-acetaminophen</t>
+          <t>acetaminophen-paracetamol-and-tramadol</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/tramadol-and-acetaminophen-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/acetaminophen-paracetamol-and-tramadol-drug-information)</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>flurbiprofen</t>
+          <t>flurbiprofen-systemic</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/flurbiprofen-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/flurbiprofen-systemic-drug-information)</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>etofenamate</t>
+          <t>etofenamate-international</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/etofenamate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/etofenamate-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>aceclofenac</t>
+          <t>aceclofenac-international</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/aceclofenac-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/aceclofenac-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>parecoxib</t>
+          <t>parecoxib-international</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/parecoxib-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/parecoxib-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>etoricoxib</t>
+          <t>etoricoxib-international</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/etoricoxib-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/etoricoxib-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>benzbromarone</t>
+          <t>benzbromarone-international</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/benzbromarone-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/benzbromarone-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>propacetamol</t>
+          <t>acetaminophen-paracetamol</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/propacetamol-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/acetaminophen-paracetamol-drug-information)</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>acetaminophen</t>
+          <t>acetaminophen-paracetamol</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/acetaminophen-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/acetaminophen-paracetamol-drug-information)</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>acetaminophen</t>
+          <t>acetaminophen-paracetamol</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/acetaminophen-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/acetaminophen-paracetamol-drug-information)</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>lithium-carbonate</t>
+          <t>lithium</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/lithium-carbonate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/lithium-drug-information)</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>sulpiride</t>
+          <t>sulpiride-international</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sulpiride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sulpiride-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -3314,12 +3314,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>amisulpride</t>
+          <t>amisulpride-antipsychotic-oral-international</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/amisulpride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/amisulpride-antipsychotic-oral-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>agomelatine</t>
+          <t>agomelatine-international</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/agomelatine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/agomelatine-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>brotizolam</t>
+          <t>brotizolam-international</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/brotizolam-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/brotizolam-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -4096,12 +4096,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>caffeine-citrate</t>
+          <t>caffeine</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/caffeine-citrate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/caffeine-drug-information)</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>valproate-sodium</t>
+          <t>valproate-valproic-acid</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/valproate-sodium-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/valproate-valproic-acid-drug-information)</t>
         </is>
       </c>
     </row>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>valproate-sodium</t>
+          <t>valproate-valproic-acid</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/valproate-sodium-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/valproate-valproic-acid-drug-information)</t>
         </is>
       </c>
     </row>
@@ -4215,12 +4215,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>valproate-sodium</t>
+          <t>valproate-valproic-acid</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/valproate-sodium-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/valproate-valproic-acid-drug-information)</t>
         </is>
       </c>
     </row>
@@ -4232,12 +4232,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>valproate-sodium</t>
+          <t>valproate-valproic-acid</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/valproate-sodium-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/valproate-valproic-acid-drug-information)</t>
         </is>
       </c>
     </row>
@@ -4538,12 +4538,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>rocuronium-bromide</t>
+          <t>rocuronium</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/rocuronium-bromide-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/rocuronium-drug-information)</t>
         </is>
       </c>
     </row>
@@ -4572,12 +4572,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>botulinum-toxin-type-a</t>
+          <t>onabotulinumtoxina-botox</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/botulinum-toxin-type-a-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/onabotulinumtoxina-botox-drug-information)</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>botulinum-toxin-type-a</t>
+          <t>onabotulinumtoxina-botox</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/botulinum-toxin-type-a-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/onabotulinumtoxina-botox-drug-information)</t>
         </is>
       </c>
     </row>
@@ -4640,12 +4640,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>biperiden</t>
+          <t>biperiden-international</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/biperiden-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/biperiden-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>diphenidol</t>
+          <t>diphenidol-international</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/diphenidol-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/diphenidol-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -5048,12 +5048,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>neostigmine-methylsulfate</t>
+          <t>neostigmine</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/neostigmine-methylsulfate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/neostigmine-drug-information)</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>mecobalamin</t>
+          <t>cyanocobalamin-vitamin-b12</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/mecobalamin-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/cyanocobalamin-vitamin-b12-drug-information)</t>
         </is>
       </c>
     </row>
@@ -5184,12 +5184,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>mecobalamin</t>
+          <t>cyanocobalamin-vitamin-b12</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/mecobalamin-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/cyanocobalamin-vitamin-b12-drug-information)</t>
         </is>
       </c>
     </row>
@@ -5201,12 +5201,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>mecobalamin</t>
+          <t>cyanocobalamin-vitamin-b12</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/mecobalamin-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/cyanocobalamin-vitamin-b12-drug-information)</t>
         </is>
       </c>
     </row>
@@ -5218,12 +5218,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>piracetam</t>
+          <t>piracetam-international</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/piracetam-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/piracetam-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -5235,12 +5235,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>piracetam</t>
+          <t>piracetam-international</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/piracetam-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/piracetam-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>piracetam</t>
+          <t>piracetam-international</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/piracetam-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/piracetam-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -5796,12 +5796,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ephedrine</t>
+          <t>ephedrine-systemic</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/ephedrine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/ephedrine-systemic-drug-information)</t>
         </is>
       </c>
     </row>
@@ -5813,12 +5813,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>epinephrine</t>
+          <t>epinephrine-adrenaline</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/epinephrine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/epinephrine-adrenaline-drug-information)</t>
         </is>
       </c>
     </row>
@@ -5847,12 +5847,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>norepinephrine</t>
+          <t>norepinephrine-noradrenaline</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/norepinephrine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/norepinephrine-noradrenaline-drug-information)</t>
         </is>
       </c>
     </row>
@@ -5915,12 +5915,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>isosorbide-5-mononitrate</t>
+          <t>isosorbide-mononitrate</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/isosorbide-5-mononitrate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/isosorbide-mononitrate-drug-information)</t>
         </is>
       </c>
     </row>
@@ -5932,12 +5932,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>nitroglycerin</t>
+          <t>nitroglycerin-glyceryl-trinitrate</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/nitroglycerin-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/nitroglycerin-glyceryl-trinitrate-drug-information)</t>
         </is>
       </c>
     </row>
@@ -5949,12 +5949,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>nitroglycerin</t>
+          <t>nitroglycerin-glyceryl-trinitrate</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/nitroglycerin-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/nitroglycerin-glyceryl-trinitrate-drug-information)</t>
         </is>
       </c>
     </row>
@@ -6136,12 +6136,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>d-mannitol</t>
+          <t>mannitol-systemic</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/d-mannitol-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/mannitol-systemic-drug-information)</t>
         </is>
       </c>
     </row>
@@ -6544,12 +6544,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>benidipine</t>
+          <t>benidipine-international</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/benidipine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/benidipine-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -6578,12 +6578,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>lercanidipine</t>
+          <t>lercanidipine-international</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/lercanidipine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/lercanidipine-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -6663,12 +6663,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>azilsartan-medoxomil</t>
+          <t>azilsartan</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/azilsartan-medoxomil-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/azilsartan-drug-information)</t>
         </is>
       </c>
     </row>
@@ -6680,12 +6680,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>olmesartan-medoxomil</t>
+          <t>olmesartan</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/olmesartan-medoxomil-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/olmesartan-drug-information)</t>
         </is>
       </c>
     </row>
@@ -6748,12 +6748,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>levosimendan</t>
+          <t>levosimendan-international</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/levosimendan-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/levosimendan-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -7292,12 +7292,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>silver-sulphadiazine</t>
+          <t>silver-sulfadiazine</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/silver-sulphadiazine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/silver-sulfadiazine-drug-information)</t>
         </is>
       </c>
     </row>
@@ -7343,12 +7343,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>amorolfine</t>
+          <t>amorolfine-international</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/amorolfine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/amorolfine-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -7360,12 +7360,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>amorolfine</t>
+          <t>amorolfine-international</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/amorolfine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/amorolfine-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -8567,12 +8567,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>sennosides</t>
+          <t>senna</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sennosides-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/senna-drug-information)</t>
         </is>
       </c>
     </row>
@@ -8669,12 +8669,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -8720,12 +8720,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>lactobacillus-casei</t>
+          <t>lactobacillus</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/lactobacillus-casei-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/lactobacillus-drug-information)</t>
         </is>
       </c>
     </row>
@@ -8788,12 +8788,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>mebeverine</t>
+          <t>mebeverine-international</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/mebeverine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/mebeverine-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -8958,12 +8958,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>mosapride</t>
+          <t>mosapride-international</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/mosapride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/mosapride-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -9043,12 +9043,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>ursodeoxycholic-acid</t>
+          <t>ursodeoxycholic-acid-ursodiol</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/ursodeoxycholic-acid-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/ursodeoxycholic-acid-ursodiol-drug-information)</t>
         </is>
       </c>
     </row>
@@ -9111,12 +9111,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>mesalazine</t>
+          <t>mesalamine-mesalazine</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/mesalazine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/mesalamine-mesalazine-drug-information)</t>
         </is>
       </c>
     </row>
@@ -9128,12 +9128,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>mesalazine</t>
+          <t>mesalamine-mesalazine</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/mesalazine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/mesalamine-mesalazine-drug-information)</t>
         </is>
       </c>
     </row>
@@ -9145,12 +9145,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>mesalazine</t>
+          <t>mesalamine-mesalazine</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/mesalazine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/mesalamine-mesalazine-drug-information)</t>
         </is>
       </c>
     </row>
@@ -9196,12 +9196,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>methoxy-polyethylene-glycol--epoetin-β</t>
+          <t>methoxy-polyethylene-glycol-epoetin-beta</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/methoxy-polyethylene-glycol--epoetin-β-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/methoxy-polyethylene-glycol-epoetin-beta-drug-information)</t>
         </is>
       </c>
     </row>
@@ -9230,12 +9230,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>recombinant-human-erythropoietin</t>
+          <t>epoetin-alfa-including-biosimilars</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/recombinant-human-erythropoietin-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/epoetin-alfa-including-biosimilars-drug-information)</t>
         </is>
       </c>
     </row>
@@ -9247,12 +9247,12 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>epoetin-beta</t>
+          <t>methoxy-polyethylene-glycol-epoetin-beta</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/epoetin-beta-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/methoxy-polyethylene-glycol-epoetin-beta-drug-information)</t>
         </is>
       </c>
     </row>
@@ -9536,12 +9536,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>acetylsalicylic-acid</t>
+          <t>aspirin</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/acetylsalicylic-acid-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/aspirin-drug-information)</t>
         </is>
       </c>
     </row>
@@ -9553,12 +9553,12 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>acetylsalicylic-acid</t>
+          <t>aspirin</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/acetylsalicylic-acid-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/aspirin-drug-information)</t>
         </is>
       </c>
     </row>
@@ -9672,12 +9672,12 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>human-plasminogen-activator</t>
+          <t>human-plasma-derived-plasminogen</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/human-plasminogen-activator-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/human-plasma-derived-plasminogen-drug-information)</t>
         </is>
       </c>
     </row>
@@ -9740,12 +9740,12 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>eptacog-alfa</t>
+          <t>factor-viia-activated-recombinant-human</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/eptacog-alfa-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/factor-viia-activated-recombinant-human-drug-information)</t>
         </is>
       </c>
     </row>
@@ -9774,12 +9774,12 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>phytonadione</t>
+          <t>vitamin-k-phytonadione-phytomenadione</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/phytonadione-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/vitamin-k-phytonadione-phytomenadione-drug-information)</t>
         </is>
       </c>
     </row>
@@ -9842,12 +9842,12 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>fibrinogen-human</t>
+          <t>fibrinogen-concentrate-from-human-plasma</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/fibrinogen-human-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/fibrinogen-concentrate-from-human-plasma-drug-information)</t>
         </is>
       </c>
     </row>
@@ -10080,12 +10080,12 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>follitropin-alpha</t>
+          <t>follitropin-alfa-recombinant-human-follicle-stimulating-hormone</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/follitropin-alpha-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/follitropin-alfa-recombinant-human-follicle-stimulating-hormone-drug-information)</t>
         </is>
       </c>
     </row>
@@ -10097,12 +10097,12 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>follitropin-alpha</t>
+          <t>follitropin-alfa-recombinant-human-follicle-stimulating-hormone</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/follitropin-alpha-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/follitropin-alfa-recombinant-human-follicle-stimulating-hormone-drug-information)</t>
         </is>
       </c>
     </row>
@@ -10265,10 +10265,14 @@
           <t>Estradiol</t>
         </is>
       </c>
-      <c r="B579" t="inlineStr"/>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>estradiol</t>
+        </is>
+      </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/nan-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/estradiol-drug-information)</t>
         </is>
       </c>
     </row>
@@ -10278,10 +10282,14 @@
           <t>Estradiol</t>
         </is>
       </c>
-      <c r="B580" t="inlineStr"/>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>estradiol</t>
+        </is>
+      </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/nan-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/estradiol-drug-information)</t>
         </is>
       </c>
     </row>
@@ -10293,12 +10301,12 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>conjugated-estrogen</t>
+          <t>estradiol</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/conjugated-estrogen-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/estradiol-drug-information)</t>
         </is>
       </c>
     </row>
@@ -10310,12 +10318,12 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>estradiol-valerate</t>
+          <t>estradiol</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/estradiol-valerate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/estradiol-drug-information)</t>
         </is>
       </c>
     </row>
@@ -10327,12 +10335,12 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>medroxyprogesterone</t>
+          <t>medroxyprogesterone-acetate</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/medroxyprogesterone-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/medroxyprogesterone-acetate-drug-information)</t>
         </is>
       </c>
     </row>
@@ -10344,12 +10352,12 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>dydrogesterone</t>
+          <t>dydrogesterone-international</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/dydrogesterone-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/dydrogesterone-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -10395,12 +10403,12 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>megestrol</t>
+          <t>megestrol-acetate</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/megestrol-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/megestrol-acetate-drug-information)</t>
         </is>
       </c>
     </row>
@@ -10446,12 +10454,12 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>estradiol-and-medroxyprogesterone</t>
+          <t>equine-conjugated-estrogens-and-medroxyprogesterone-acetate</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/estradiol-and-medroxyprogesterone-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/equine-conjugated-estrogens-and-medroxyprogesterone-acetate-drug-information)</t>
         </is>
       </c>
     </row>
@@ -10463,12 +10471,12 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>estradiol-and-medroxyprogesterone</t>
+          <t>equine-conjugated-estrogens-and-medroxyprogesterone-acetate</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/estradiol-and-medroxyprogesterone-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/equine-conjugated-estrogens-and-medroxyprogesterone-acetate-drug-information)</t>
         </is>
       </c>
     </row>
@@ -10514,12 +10522,12 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>gestrinone</t>
+          <t>gestrinone-international</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/gestrinone-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/gestrinone-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -10939,12 +10947,12 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>bcg-vaccine</t>
+          <t>bacillus-calmette-guerin-bcg-percutaneous-vaccine-us-product-consult-local-product-information-for-non-us-vaccine</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/bcg-vaccine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/bacillus-calmette-guerin-bcg-percutaneous-vaccine-us-product-consult-local-product-information-for-non-us-vaccine-drug-information)</t>
         </is>
       </c>
     </row>
@@ -11007,12 +11015,12 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>hpv-type-6/11/16/18/31/33/45/52/58-l1-protein</t>
+          <t>human-papillomavirus-9-valent-vaccine-9vhpv</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/hpv-type-6/11/16/18/31/33/45/52/58-l1-protein-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/human-papillomavirus-9-valent-vaccine-9vhpv-drug-information)</t>
         </is>
       </c>
     </row>
@@ -11024,12 +11032,12 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>hpv-type-6/11/16/18/31/33/45/52/58-l1-protein</t>
+          <t>human-papillomavirus-9-valent-vaccine-9vhpv</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/hpv-type-6/11/16/18/31/33/45/52/58-l1-protein-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/human-papillomavirus-9-valent-vaccine-9vhpv-drug-information)</t>
         </is>
       </c>
     </row>
@@ -11075,12 +11083,12 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>measles-and-mumps-and-rubella</t>
+          <t>measles-mumps-rubella-and-varicella-virus-vaccine-mmrv</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/measles-and-mumps-and-rubella-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/measles-mumps-rubella-and-varicella-virus-vaccine-mmrv-drug-information)</t>
         </is>
       </c>
     </row>
@@ -11126,12 +11134,12 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>inactivated-hepatitis-a-virus-vaccine</t>
+          <t>hepatitis-a-vaccine-hepa</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/inactivated-hepatitis-a-virus-vaccine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/hepatitis-a-vaccine-hepa-drug-information)</t>
         </is>
       </c>
     </row>
@@ -11364,12 +11372,12 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>human-rotavirus</t>
+          <t>rotavirus-vaccines-rv1-and-rv5</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/human-rotavirus-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/rotavirus-vaccines-rv1-and-rv5-drug-information)</t>
         </is>
       </c>
     </row>
@@ -11381,12 +11389,12 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>human-rotavirus</t>
+          <t>rotavirus-vaccines-rv1-and-rv5</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/human-rotavirus-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/rotavirus-vaccines-rv1-and-rv5-drug-information)</t>
         </is>
       </c>
     </row>
@@ -11449,12 +11457,12 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>dtap-ipv</t>
+          <t>diphtheria-tetanus-toxoids-acellular-pertussis-inactivated-poliovirus-combination-vaccine-dtap-ipv</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/dtap-ipv-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/diphtheria-tetanus-toxoids-acellular-pertussis-inactivated-poliovirus-combination-vaccine-dtap-ipv-drug-information)</t>
         </is>
       </c>
     </row>
@@ -11466,12 +11474,12 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>dtap-ipv-hib-hbv</t>
+          <t>diphtheria-tetanus-toxoids-acellular-pertussis-inactivated-poliovirus-haemophilus-influenzae-type-b-hepatitis-b-conjugate-vaccine-dtap-ipv-hib-hepb</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/dtap-ipv-hib-hbv-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/diphtheria-tetanus-toxoids-acellular-pertussis-inactivated-poliovirus-haemophilus-influenzae-type-b-hepatitis-b-conjugate-vaccine-dtap-ipv-hib-hepb-drug-information)</t>
         </is>
       </c>
     </row>
@@ -11483,12 +11491,12 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>dtap-ipv-hib</t>
+          <t>diphtheria-tetanus-toxoids-acellular-pertussis-inactivated-poliovirus-and-haemophilus-influenzae-type-b-conjugate-vaccine-dtap-ipv-hib</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/dtap-ipv-hib-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/diphtheria-tetanus-toxoids-acellular-pertussis-inactivated-poliovirus-and-haemophilus-influenzae-type-b-conjugate-vaccine-dtap-ipv-hib-drug-information)</t>
         </is>
       </c>
     </row>
@@ -11534,12 +11542,12 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>human-immunoglobulin</t>
+          <t>immune-globulin-intravenous-subcutaneous-and-intramuscular</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/human-immunoglobulin-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/immune-globulin-intravenous-subcutaneous-and-intramuscular-drug-information)</t>
         </is>
       </c>
     </row>
@@ -11721,12 +11729,12 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>peginterferon-beta-1a</t>
+          <t>pegylated-interferon-peginterferon-beta-1a</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/peginterferon-beta-1a-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/pegylated-interferon-peginterferon-beta-1a-drug-information)</t>
         </is>
       </c>
     </row>
@@ -11738,12 +11746,12 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>peginterferon-beta-1a</t>
+          <t>pegylated-interferon-peginterferon-beta-1a</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/peginterferon-beta-1a-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/pegylated-interferon-peginterferon-beta-1a-drug-information)</t>
         </is>
       </c>
     </row>
@@ -11755,12 +11763,12 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>peginterferon-beta-1a</t>
+          <t>pegylated-interferon-peginterferon-beta-1a</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/peginterferon-beta-1a-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/pegylated-interferon-peginterferon-beta-1a-drug-information)</t>
         </is>
       </c>
     </row>
@@ -11772,12 +11780,12 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>mycophenolate-mofetil</t>
+          <t>mycophenolate-mofetil-cellcept-myhibbin-and-mycophenolate-sodium-myfortic</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/mycophenolate-mofetil-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/mycophenolate-mofetil-cellcept-myhibbin-and-mycophenolate-sodium-myfortic-drug-information)</t>
         </is>
       </c>
     </row>
@@ -11993,12 +12001,12 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>ciclosporin</t>
+          <t>cyclosporine-ciclosporin-systemic</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/ciclosporin-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/cyclosporine-ciclosporin-systemic-drug-information)</t>
         </is>
       </c>
     </row>
@@ -12622,12 +12630,12 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>salmon-calcitonin</t>
+          <t>calcitonin</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/salmon-calcitonin-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/calcitonin-drug-information)</t>
         </is>
       </c>
     </row>
@@ -12639,12 +12647,12 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>1,25-dihydroxycholecalciferol</t>
+          <t>calcitriol-systemic</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/1,25-dihydroxycholecalciferol-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/calcitriol-systemic-drug-information)</t>
         </is>
       </c>
     </row>
@@ -12690,12 +12698,12 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>teriparatide</t>
+          <t>teriparatide-including-biosimilars-available-in-canada</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/teriparatide-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/teriparatide-including-biosimilars-available-in-canada-drug-information)</t>
         </is>
       </c>
     </row>
@@ -12707,12 +12715,12 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>teriparatide</t>
+          <t>teriparatide-including-biosimilars-available-in-canada</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/teriparatide-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/teriparatide-including-biosimilars-available-in-canada-drug-information)</t>
         </is>
       </c>
     </row>
@@ -12945,12 +12953,12 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>pyridoxine</t>
+          <t>vitamin-b6-pyridoxine</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/pyridoxine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/vitamin-b6-pyridoxine-drug-information)</t>
         </is>
       </c>
     </row>
@@ -12979,12 +12987,12 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>ascorbic-acid</t>
+          <t>vitamin-c-ascorbic-acid</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/ascorbic-acid-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/vitamin-c-ascorbic-acid-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13098,12 +13106,12 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>amino-acids</t>
+          <t>amino-acids-solutions-for-parenteral-nutrition</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/amino-acids-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/amino-acids-solutions-for-parenteral-nutrition-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13115,12 +13123,12 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>amino-acids</t>
+          <t>amino-acids-solutions-for-parenteral-nutrition</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/amino-acids-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/amino-acids-solutions-for-parenteral-nutrition-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13132,12 +13140,12 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>amino-acids</t>
+          <t>amino-acids-solutions-for-parenteral-nutrition</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/amino-acids-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/amino-acids-solutions-for-parenteral-nutrition-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13183,12 +13191,12 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>dextrose</t>
+          <t>instant-glucose-and-intravenous-dextrose</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/dextrose-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/instant-glucose-and-intravenous-dextrose-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13200,12 +13208,12 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>dextrose</t>
+          <t>instant-glucose-and-intravenous-dextrose</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/dextrose-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/instant-glucose-and-intravenous-dextrose-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13217,12 +13225,12 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>dextrose</t>
+          <t>instant-glucose-and-intravenous-dextrose</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/dextrose-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/instant-glucose-and-intravenous-dextrose-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13234,12 +13242,12 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>dextrose</t>
+          <t>instant-glucose-and-intravenous-dextrose</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/dextrose-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/instant-glucose-and-intravenous-dextrose-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13251,12 +13259,12 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>dextrose</t>
+          <t>instant-glucose-and-intravenous-dextrose</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/dextrose-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/instant-glucose-and-intravenous-dextrose-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13268,12 +13276,12 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>dextrose</t>
+          <t>instant-glucose-and-intravenous-dextrose</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/dextrose-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/instant-glucose-and-intravenous-dextrose-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13336,12 +13344,12 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>sodium-acetate-anhydrous</t>
+          <t>sodium-acetate</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-acetate-anhydrous-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-acetate-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13455,12 +13463,12 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13472,12 +13480,12 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13489,12 +13497,12 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13506,12 +13514,12 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13523,12 +13531,12 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13540,12 +13548,12 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13557,12 +13565,12 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13574,12 +13582,12 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13591,12 +13599,12 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13608,12 +13616,12 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13625,12 +13633,12 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -13642,12 +13650,12 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -14084,12 +14092,12 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -14101,12 +14109,12 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -14118,12 +14126,12 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -14135,12 +14143,12 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -14152,12 +14160,12 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -14526,12 +14534,12 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>mitomycin-c</t>
+          <t>mitomycin-intravenous-and-intravesical-systemic</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/mitomycin-c-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/mitomycin-intravenous-and-intravesical-systemic-drug-information)</t>
         </is>
       </c>
     </row>
@@ -14696,12 +14704,12 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>leuprorelin-acetate</t>
+          <t>leuprolide</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/leuprorelin-acetate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/leuprolide-drug-information)</t>
         </is>
       </c>
     </row>
@@ -14713,12 +14721,12 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>leuprorelin-acetate</t>
+          <t>leuprolide</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/leuprorelin-acetate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/leuprolide-drug-information)</t>
         </is>
       </c>
     </row>
@@ -15036,12 +15044,12 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>bcg-immunotherapeutic</t>
+          <t>intravesical-bacillus-calmette-guerin</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/bcg-immunotherapeutic-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/intravesical-bacillus-calmette-guerin-drug-information)</t>
         </is>
       </c>
     </row>
@@ -15274,12 +15282,12 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>lapatinib-ditosylate</t>
+          <t>lapatinib</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/lapatinib-ditosylate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/lapatinib-drug-information)</t>
         </is>
       </c>
     </row>
@@ -15529,12 +15537,12 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>trastuzumab-deruxtecan</t>
+          <t>fam-trastuzumab-deruxtecan</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/trastuzumab-deruxtecan-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/fam-trastuzumab-deruxtecan-drug-information)</t>
         </is>
       </c>
     </row>
@@ -15954,12 +15962,12 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>atropine-sulfate-monohydrate</t>
+          <t>atropine-ophthalmic</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/atropine-sulfate-monohydrate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/atropine-ophthalmic-drug-information)</t>
         </is>
       </c>
     </row>
@@ -16039,12 +16047,12 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>carteolol</t>
+          <t>carteolol-ophthalmic</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/carteolol-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/carteolol-ophthalmic-drug-information)</t>
         </is>
       </c>
     </row>
@@ -16396,12 +16404,12 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>sodium-chloride</t>
+          <t>sodium-chloride-preparations-saline-and-oral-salt-tablets</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/sodium-chloride-preparations-saline-and-oral-salt-tablets-drug-information)</t>
         </is>
       </c>
     </row>
@@ -16464,12 +16472,12 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>cyanocobalamin</t>
+          <t>cyanocobalamin-vitamin-b12</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/cyanocobalamin-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/cyanocobalamin-vitamin-b12-drug-information)</t>
         </is>
       </c>
     </row>
@@ -16498,12 +16506,12 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>neostigmine-methylsulfate</t>
+          <t>neostigmine</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/neostigmine-methylsulfate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/neostigmine-drug-information)</t>
         </is>
       </c>
     </row>
@@ -16566,12 +16574,12 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>fenoterol</t>
+          <t>fenoterol-international</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/fenoterol-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/fenoterol-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -16583,12 +16591,12 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>salbutamol</t>
+          <t>albuterol-salbutamol</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/salbutamol-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/albuterol-salbutamol-drug-information)</t>
         </is>
       </c>
     </row>
@@ -16991,12 +16999,12 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>bromhexine</t>
+          <t>bromhexine-international</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/bromhexine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/bromhexine-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -17042,12 +17050,12 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>ambroxol</t>
+          <t>ambroxol-international</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/ambroxol-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/ambroxol-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -17059,12 +17067,12 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>ambroxol</t>
+          <t>ambroxol-international</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/ambroxol-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/ambroxol-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -17280,12 +17288,12 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>conjugated-estrogen</t>
+          <t>estradiol</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/conjugated-estrogen-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/estradiol-drug-information)</t>
         </is>
       </c>
     </row>
@@ -17365,12 +17373,12 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>atosiban</t>
+          <t>atosiban-international</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/atosiban-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/atosiban-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -17416,12 +17424,12 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>ergometrine</t>
+          <t>ergonovine-united-states-not-available</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/ergometrine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/ergonovine-united-states-not-available-drug-information)</t>
         </is>
       </c>
     </row>
@@ -17603,12 +17611,12 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>hyaluronate</t>
+          <t>hyaluronate-derivatives</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/hyaluronate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/hyaluronate-derivatives-drug-information)</t>
         </is>
       </c>
     </row>
@@ -17756,12 +17764,12 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>dapoxetine</t>
+          <t>dapoxetine-international</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/dapoxetine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/dapoxetine-international-drug-information-concise)</t>
         </is>
       </c>
     </row>
@@ -17790,12 +17798,12 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>potassium-citrate-monohydrate-and-citric-acid</t>
+          <t>potassium-citrate-and-citric-acid-powder-or-solution</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/potassium-citrate-monohydrate-and-citric-acid-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/potassium-citrate-and-citric-acid-powder-or-solution-drug-information)</t>
         </is>
       </c>
     </row>
@@ -17824,12 +17832,12 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>bethanechol-chloride</t>
+          <t>bethanechol</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/bethanechol-chloride-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/bethanechol-drug-information)</t>
         </is>
       </c>
     </row>
@@ -17858,12 +17866,12 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>iohexol-and-tromethamine</t>
+          <t>iohexol</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/iohexol-and-tromethamine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/iohexol-drug-information)</t>
         </is>
       </c>
     </row>
@@ -17875,12 +17883,12 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>iohexol-and-tromethamine</t>
+          <t>iohexol</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/iohexol-and-tromethamine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/iohexol-drug-information)</t>
         </is>
       </c>
     </row>
@@ -17892,12 +17900,12 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>iohexol-and-tromethamine</t>
+          <t>iohexol</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/iohexol-and-tromethamine-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/iohexol-drug-information)</t>
         </is>
       </c>
     </row>
@@ -17994,12 +18002,12 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>barium-sulfate</t>
+          <t>barium</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/barium-sulfate-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/barium-drug-information)</t>
         </is>
       </c>
     </row>
@@ -18079,12 +18087,12 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>patent-blue-v</t>
+          <t>methylene-blue</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>[UpToDate](https://www.uptodate.com/contents/patent-blue-v-drug-information)</t>
+          <t>[UpToDate](https://www.uptodate.com/contents/methylene-blue-drug-information)</t>
         </is>
       </c>
     </row>
